--- a/biology/Médecine/Hôpital_de_Cumberland/Hôpital_de_Cumberland.xlsx
+++ b/biology/Médecine/Hôpital_de_Cumberland/Hôpital_de_Cumberland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Cumberland</t>
+          <t>Hôpital_de_Cumberland</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'hôpital de Cumberland est un hôpital psychiatrique public situé à Westmead (en), une banlieue de l'ouest de Sydney en Australie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Cumberland</t>
+          <t>Hôpital_de_Cumberland</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bâtiment servait précédemment de résidence pour les détenues femmes. En 1817, le gouverneur Lachlan Macquarie a commandé la construction de structures permanentes. Les femmes détenues ont été obligées de travailler. Par la suite, la résidence est connue sous le nom de The Female Factory. 
-Bien que la déportation de condamnés vers la Nouvelle-Galles du Sud ait cessé en 1840, le site reste un lieu de détention des femmes condamnés jusqu'en 1847[1].
-En 1849, les bâtiments deviennent un hôpital psychiatrique[2]. À la fin du XIXe siècle, le détenu William Cresswell y est interné, après avoir voulu faire établir qu'il était un héritier dans l'affaire Tichborne. Il est alors convaincu de parjure et condamné. Il meurt à l'hôpital psychiatrique en 1904[3].
+Bien que la déportation de condamnés vers la Nouvelle-Galles du Sud ait cessé en 1840, le site reste un lieu de détention des femmes condamnés jusqu'en 1847.
+En 1849, les bâtiments deviennent un hôpital psychiatrique. À la fin du XIXe siècle, le détenu William Cresswell y est interné, après avoir voulu faire établir qu'il était un héritier dans l'affaire Tichborne. Il est alors convaincu de parjure et condamné. Il meurt à l'hôpital psychiatrique en 1904.
 L'hôpital prend son nom actuel en 1983. 
-Avec la Bungarribee House et l'hôpital de Blacktown, cet hôpital répond aux besoins de santé mentale de la région de Sydney-Ouest. L'hôpital public fait partie du district de santé local de l'ouest de Sydney (WSLHD)[4].
+Avec la Bungarribee House et l'hôpital de Blacktown, cet hôpital répond aux besoins de santé mentale de la région de Sydney-Ouest. L'hôpital public fait partie du district de santé local de l'ouest de Sydney (WSLHD).
 </t>
         </is>
       </c>
